--- a/resultados_cambio_tiempo.xlsx
+++ b/resultados_cambio_tiempo.xlsx
@@ -1,37 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Analisis_Diseno\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Cambio</t>
+  </si>
+  <si>
+    <t>Tiempo de Ejecucion (segundos)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +62,1487 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cambios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Tiempo   DP  Problema Cambio de la moneda</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo de Ejecucion (segundos)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.38453691019333625"/>
+                  <c:y val="-1.4539509376970371E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>2.8371810913085941E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.817413330078125E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9366226196289063E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.389617919921875E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7962875366210938E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2002410888671875E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7571449279785159E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.392333984375E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.025199890136719E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1444091796875E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2254409790039063E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6188621520996091E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3136863708496091E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.131462097167969E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4281272888183591E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.630783081054688E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6570091247558591E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.301765441894531E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6140937805175781E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9764900207519531E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.946853637695312E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.231597900390625E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9073486328125E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.117156982421875E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2101402282714841E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.255439758300781E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3818016052246091E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.489089965820312E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6082992553710938E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.613067626953125E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8422813415527338E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.765655517578125E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4628639221191412E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.08990478515625E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4724006652832031E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8003921508789063E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7431716918945313E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5084953308105469E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.204345703125E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0827522277832031E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4165382385253912E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5357475280761719E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.2114982604980469E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5309791564941412E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.4356117248535162E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9601325988769531E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.919601440429688E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8075447082519531E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.110336303710938E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.5360794067382813E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.3153762817382813E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8756599426269531E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9362907409667969E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.4584274291992188E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.4274330139160162E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.9339065551757813E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.3824653625488281E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7159194946289063E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9853324890136719E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A299-40DF-9B0C-59E5761E7CDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1626156959"/>
+        <c:axId val="1626157375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1626156959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cambios de Monedas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626157375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1626157375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo Ejecucion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626156959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,272 +1829,497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo de Ejecucion (segundos)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.908706665039062e-05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2">
+        <v>2.8371810913085941E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>15</v>
       </c>
-      <c r="B3" t="n">
-        <v>6.365776062011719e-05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3">
+        <v>5.817413330078125E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" t="n">
-        <v>4.291534423828125e-05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4">
+        <v>5.9366226196289063E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>25</v>
       </c>
-      <c r="B5" t="n">
-        <v>5.555152893066406e-05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>6.389617919921875E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.0004670619964599609</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>7.7962875366210938E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>35</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.0002346038818359375</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>7.2002410888671875E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>40</v>
       </c>
-      <c r="B8" t="n">
-        <v>8.535385131835938e-05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>1.7571449279785159E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>45</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.0002553462982177734</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B9">
+        <v>8.392333984375E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.0156397819519043</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B10">
+        <v>1.025199890136719E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>55</v>
       </c>
-      <c r="B11" t="n">
-        <v>9.965896606445312e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B11">
+        <v>1.1444091796875E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>60</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.0001034736633300781</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="B12">
+        <v>8.2254409790039063E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>65</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.0001962184906005859</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="B13">
+        <v>1.6188621520996091E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>70</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.0001394748687744141</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="B14">
+        <v>1.3136863708496091E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>75</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.0001490116119384766</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="B15">
+        <v>2.131462097167969E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>80</v>
       </c>
-      <c r="B16" t="n">
-        <v>0.0002996921539306641</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="B16">
+        <v>1.4281272888183591E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>85</v>
       </c>
-      <c r="B17" t="n">
-        <v>0.0001628398895263672</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="B17">
+        <v>1.630783081054688E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>90</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.0001771450042724609</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="B18">
+        <v>1.6570091247558591E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>95</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.0001571178436279297</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="B19">
+        <v>1.301765441894531E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>100</v>
       </c>
-      <c r="B20" t="n">
-        <v>0.0002758502960205078</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="B20">
+        <v>1.6140937805175781E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>1.9764900207519531E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>110</v>
       </c>
-      <c r="B21" t="n">
-        <v>0.0002100467681884766</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="B22">
+        <v>2.946853637695312E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>115</v>
       </c>
-      <c r="B22" t="n">
-        <v>0.0002834796905517578</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="B23">
+        <v>2.231597900390625E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>120</v>
       </c>
-      <c r="B23" t="n">
-        <v>0.0002498626708984375</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="B24">
+        <v>1.9073486328125E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>125</v>
       </c>
-      <c r="B24" t="n">
-        <v>0.0002279281616210938</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="B25">
+        <v>2.117156982421875E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>130</v>
       </c>
-      <c r="B25" t="n">
-        <v>0.001084089279174805</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="B26">
+        <v>2.2101402282714841E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>135</v>
       </c>
-      <c r="B26" t="n">
-        <v>0.0003125667572021484</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="B27">
+        <v>2.255439758300781E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>140</v>
       </c>
-      <c r="B27" t="n">
-        <v>0.0003366470336914062</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="B28">
+        <v>2.3818016052246091E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>145</v>
       </c>
-      <c r="B28" t="n">
-        <v>0.001244783401489258</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="B29">
+        <v>2.489089965820312E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>150</v>
       </c>
-      <c r="B29" t="n">
-        <v>0.0002408027648925781</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="B30">
+        <v>2.6082992553710938E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>155</v>
       </c>
-      <c r="B30" t="n">
-        <v>0.0002558231353759766</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="B31">
+        <v>2.613067626953125E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>160</v>
       </c>
-      <c r="B31" t="n">
-        <v>0.004276275634765625</v>
+      <c r="B32">
+        <v>4.8422813415527338E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>165</v>
+      </c>
+      <c r="B33">
+        <v>2.765655517578125E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>170</v>
+      </c>
+      <c r="B34">
+        <v>2.4628639221191412E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>175</v>
+      </c>
+      <c r="B35">
+        <v>3.08990478515625E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>180</v>
+      </c>
+      <c r="B36">
+        <v>2.4724006652832031E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>185</v>
+      </c>
+      <c r="B37">
+        <v>3.8003921508789063E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>190</v>
+      </c>
+      <c r="B38">
+        <v>3.7431716918945313E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>195</v>
+      </c>
+      <c r="B39">
+        <v>4.5084953308105469E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>200</v>
+      </c>
+      <c r="B40">
+        <v>3.204345703125E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>205</v>
+      </c>
+      <c r="B41">
+        <v>3.0827522277832031E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>210</v>
+      </c>
+      <c r="B42">
+        <v>3.4165382385253912E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>215</v>
+      </c>
+      <c r="B43">
+        <v>3.5357475280761719E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>220</v>
+      </c>
+      <c r="B44">
+        <v>3.2114982604980469E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>225</v>
+      </c>
+      <c r="B45">
+        <v>3.5309791564941412E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>230</v>
+      </c>
+      <c r="B46">
+        <v>3.4356117248535162E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>235</v>
+      </c>
+      <c r="B47">
+        <v>3.9601325988769531E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>240</v>
+      </c>
+      <c r="B48">
+        <v>3.919601440429688E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>245</v>
+      </c>
+      <c r="B49">
+        <v>3.8075447082519531E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>250</v>
+      </c>
+      <c r="B50">
+        <v>4.110336303710938E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>255</v>
+      </c>
+      <c r="B51">
+        <v>5.5360794067382813E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>260</v>
+      </c>
+      <c r="B52">
+        <v>4.3153762817382813E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>265</v>
+      </c>
+      <c r="B53">
+        <v>4.8756599426269531E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>270</v>
+      </c>
+      <c r="B54">
+        <v>3.9362907409667969E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>275</v>
+      </c>
+      <c r="B55">
+        <v>4.4584274291992188E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>280</v>
+      </c>
+      <c r="B56">
+        <v>4.4274330139160162E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>285</v>
+      </c>
+      <c r="B57">
+        <v>3.9339065551757813E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>290</v>
+      </c>
+      <c r="B58">
+        <v>6.3824653625488281E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>295</v>
+      </c>
+      <c r="B59">
+        <v>4.7159194946289063E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>300</v>
+      </c>
+      <c r="B60">
+        <v>4.9853324890136719E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/resultados_cambio_tiempo.xlsx
+++ b/resultados_cambio_tiempo.xlsx
@@ -229,21 +229,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1515,15 +1501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1833,7 +1819,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resultados_cambio_tiempo.xlsx
+++ b/resultados_cambio_tiempo.xlsx
@@ -229,7 +229,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -311,147 +311,6 @@
                 <c:pt idx="11">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>300</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -496,147 +355,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.6188621520996091E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3136863708496091E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.131462097167969E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4281272888183591E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.630783081054688E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6570091247558591E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.301765441894531E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6140937805175781E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9764900207519531E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.946853637695312E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.231597900390625E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9073486328125E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.117156982421875E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.2101402282714841E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.255439758300781E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.3818016052246091E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.489089965820312E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.6082992553710938E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.613067626953125E-4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.8422813415527338E-4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.765655517578125E-4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.4628639221191412E-4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.08990478515625E-4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.4724006652832031E-4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.8003921508789063E-4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.7431716918945313E-4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.5084953308105469E-4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.204345703125E-4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.0827522277832031E-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.4165382385253912E-4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.5357475280761719E-4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.2114982604980469E-4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.5309791564941412E-4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.4356117248535162E-4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.9601325988769531E-4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.919601440429688E-4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.8075447082519531E-4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.110336303710938E-4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.5360794067382813E-4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.3153762817382813E-4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.8756599426269531E-4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.9362907409667969E-4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.4584274291992188E-4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.4274330139160162E-4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.9339065551757813E-4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.3824653625488281E-4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.7159194946289063E-4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.9853324890136719E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,382 +1646,6 @@
         <v>1.6188621520996091E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <v>1.3136863708496091E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>75</v>
-      </c>
-      <c r="B15">
-        <v>2.131462097167969E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>80</v>
-      </c>
-      <c r="B16">
-        <v>1.4281272888183591E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>85</v>
-      </c>
-      <c r="B17">
-        <v>1.630783081054688E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>90</v>
-      </c>
-      <c r="B18">
-        <v>1.6570091247558591E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>95</v>
-      </c>
-      <c r="B19">
-        <v>1.301765441894531E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>100</v>
-      </c>
-      <c r="B20">
-        <v>1.6140937805175781E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>105</v>
-      </c>
-      <c r="B21">
-        <v>1.9764900207519531E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>110</v>
-      </c>
-      <c r="B22">
-        <v>2.946853637695312E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>115</v>
-      </c>
-      <c r="B23">
-        <v>2.231597900390625E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>120</v>
-      </c>
-      <c r="B24">
-        <v>1.9073486328125E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>125</v>
-      </c>
-      <c r="B25">
-        <v>2.117156982421875E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>130</v>
-      </c>
-      <c r="B26">
-        <v>2.2101402282714841E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>135</v>
-      </c>
-      <c r="B27">
-        <v>2.255439758300781E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>140</v>
-      </c>
-      <c r="B28">
-        <v>2.3818016052246091E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>145</v>
-      </c>
-      <c r="B29">
-        <v>2.489089965820312E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>150</v>
-      </c>
-      <c r="B30">
-        <v>2.6082992553710938E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>155</v>
-      </c>
-      <c r="B31">
-        <v>2.613067626953125E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>160</v>
-      </c>
-      <c r="B32">
-        <v>4.8422813415527338E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>165</v>
-      </c>
-      <c r="B33">
-        <v>2.765655517578125E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>170</v>
-      </c>
-      <c r="B34">
-        <v>2.4628639221191412E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>175</v>
-      </c>
-      <c r="B35">
-        <v>3.08990478515625E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>180</v>
-      </c>
-      <c r="B36">
-        <v>2.4724006652832031E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>185</v>
-      </c>
-      <c r="B37">
-        <v>3.8003921508789063E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>190</v>
-      </c>
-      <c r="B38">
-        <v>3.7431716918945313E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>195</v>
-      </c>
-      <c r="B39">
-        <v>4.5084953308105469E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>200</v>
-      </c>
-      <c r="B40">
-        <v>3.204345703125E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>205</v>
-      </c>
-      <c r="B41">
-        <v>3.0827522277832031E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>210</v>
-      </c>
-      <c r="B42">
-        <v>3.4165382385253912E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>215</v>
-      </c>
-      <c r="B43">
-        <v>3.5357475280761719E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>220</v>
-      </c>
-      <c r="B44">
-        <v>3.2114982604980469E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>225</v>
-      </c>
-      <c r="B45">
-        <v>3.5309791564941412E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>230</v>
-      </c>
-      <c r="B46">
-        <v>3.4356117248535162E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>235</v>
-      </c>
-      <c r="B47">
-        <v>3.9601325988769531E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>240</v>
-      </c>
-      <c r="B48">
-        <v>3.919601440429688E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>245</v>
-      </c>
-      <c r="B49">
-        <v>3.8075447082519531E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>250</v>
-      </c>
-      <c r="B50">
-        <v>4.110336303710938E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>255</v>
-      </c>
-      <c r="B51">
-        <v>5.5360794067382813E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>260</v>
-      </c>
-      <c r="B52">
-        <v>4.3153762817382813E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>265</v>
-      </c>
-      <c r="B53">
-        <v>4.8756599426269531E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>270</v>
-      </c>
-      <c r="B54">
-        <v>3.9362907409667969E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>275</v>
-      </c>
-      <c r="B55">
-        <v>4.4584274291992188E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>280</v>
-      </c>
-      <c r="B56">
-        <v>4.4274330139160162E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>285</v>
-      </c>
-      <c r="B57">
-        <v>3.9339065551757813E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>290</v>
-      </c>
-      <c r="B58">
-        <v>6.3824653625488281E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>295</v>
-      </c>
-      <c r="B59">
-        <v>4.7159194946289063E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>300</v>
-      </c>
-      <c r="B60">
-        <v>4.9853324890136719E-4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
